--- a/plots/basic_stats/two_var_stats/allmus_governance_simpl_vs_accreditation-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_governance_simpl_vs_accreditation-PC.xlsx
@@ -386,13 +386,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>15.952</v>
+        <v>15.346</v>
       </c>
       <c r="C2">
-        <v>8.773999999999999</v>
+        <v>8.702</v>
       </c>
       <c r="D2">
-        <v>24.726</v>
+        <v>24.048</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>24.302</v>
+        <v>23.623</v>
       </c>
       <c r="C3">
-        <v>45.688</v>
+        <v>47.127</v>
       </c>
       <c r="D3">
-        <v>69.99000000000001</v>
+        <v>70.75</v>
       </c>
     </row>
     <row r="4">
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>1.77</v>
+        <v>1.726</v>
       </c>
       <c r="C4">
-        <v>0.872</v>
+        <v>0.875</v>
       </c>
       <c r="D4">
-        <v>2.642</v>
+        <v>2.601</v>
       </c>
     </row>
     <row r="5">
@@ -437,10 +437,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.642</v>
+        <v>2.601</v>
       </c>
       <c r="D5">
-        <v>2.642</v>
+        <v>2.601</v>
       </c>
     </row>
     <row r="6">
@@ -450,10 +450,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>42.024</v>
+        <v>40.695</v>
       </c>
       <c r="C6">
-        <v>57.976</v>
+        <v>59.305</v>
       </c>
       <c r="D6">
         <v>100</v>
